--- a/APF/RA006/Method/backup/APF0203_Method一覽表.xlsx
+++ b/APF/RA006/Method/backup/APF0203_Method一覽表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Method_List" sheetId="6" r:id="rId1"/>
@@ -883,13 +883,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.建立query_scope變數
-2.取得資料庫資料,query_scopet.Rid等於rid
-3.回傳query_scopet
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>query_scope</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1028,6 +1021,13 @@
   <si>
     <t>GetQueryScopeByRid</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.建立query_scope變數
+2.取得資料庫資料,query_scope.Rid等於rid
+3.回傳query_scope
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1574,6 +1574,24 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,6 +1601,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,12 +1616,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,25 +1637,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,17 +1673,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1676,65 +1688,65 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1745,47 +1757,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5101,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5139,7 +5139,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>88</v>
@@ -5154,10 +5154,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="67"/>
     </row>
@@ -5169,12 +5169,12 @@
         <v>70</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="138"/>
+        <v>127</v>
+      </c>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="63">
@@ -5184,10 +5184,10 @@
         <v>70</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="67"/>
     </row>
@@ -5196,13 +5196,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="67"/>
     </row>
@@ -5211,13 +5211,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="67"/>
     </row>
@@ -5322,7 +5322,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="108" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="59"/>
@@ -5338,7 +5338,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="109"/>
+      <c r="J2" s="108"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
     </row>
@@ -5352,7 +5352,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="109"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
     </row>
@@ -5371,80 +5371,80 @@
       <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="103" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="60"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="107" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="107"/>
+      <c r="I6" s="109"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="22" t="s">
         <v>53</v>
       </c>
@@ -5454,13 +5454,13 @@
       <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="20"/>
       <c r="J9" s="3"/>
     </row>
@@ -5468,13 +5468,13 @@
       <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="20"/>
       <c r="J10" s="3"/>
     </row>
@@ -5482,47 +5482,47 @@
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="20"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="90" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="90" t="s">
+      <c r="F13" s="110"/>
+      <c r="G13" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="22" t="s">
         <v>12</v>
       </c>
@@ -5532,13 +5532,13 @@
       <c r="A14" s="21">
         <v>1</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="23"/>
       <c r="J14" s="3"/>
     </row>
@@ -5546,13 +5546,13 @@
       <c r="A15" s="21">
         <v>2</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="23"/>
       <c r="J15" s="3"/>
     </row>
@@ -5560,297 +5560,297 @@
       <c r="A16" s="21">
         <v>3</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="99"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="19"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="79" t="s">
+      <c r="E18" s="98"/>
+      <c r="F18" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="99"/>
+      <c r="H18" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="26"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="26"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="26"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="26"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="21"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:10" ht="97.5" customHeight="1">
       <c r="A25" s="21">
         <v>1</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="72">
+      <c r="A26" s="80">
         <v>2</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="74" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="21"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="21"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="21"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="21"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="21"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="96" t="s">
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="97"/>
-      <c r="F37" s="98"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="121"/>
+      <c r="I37" s="107"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="96" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="98"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="119" t="s">
+      <c r="H38" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="121"/>
+      <c r="I38" s="107"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="96" t="s">
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="93"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
       <c r="A40" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="136"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="38" t="s">
         <v>36</v>
       </c>
@@ -5859,75 +5859,75 @@
       <c r="A41" s="43">
         <v>1</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="43">
         <v>2</v>
       </c>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="107"/>
       <c r="E42" s="43"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="90"/>
       <c r="I42" s="42"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="43">
         <v>3</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="107"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="42"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="90" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="136"/>
-      <c r="G45" s="90" t="s">
+      <c r="F45" s="115"/>
+      <c r="G45" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="136"/>
+      <c r="H45" s="115"/>
       <c r="I45" s="38" t="s">
         <v>12</v>
       </c>
@@ -5936,13 +5936,13 @@
       <c r="A46" s="43">
         <v>1</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="101"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="39" t="s">
         <v>59</v>
       </c>
@@ -5951,240 +5951,361 @@
       <c r="A47" s="43">
         <v>2</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="39"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="43">
         <v>3</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="99"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="94"/>
       <c r="I48" s="40"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="78"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
       <c r="A50" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="90" t="s">
+      <c r="C50" s="115"/>
+      <c r="D50" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="136"/>
-      <c r="F50" s="79" t="s">
+      <c r="E50" s="115"/>
+      <c r="F50" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="81"/>
-      <c r="H50" s="76" t="s">
+      <c r="G50" s="87"/>
+      <c r="H50" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="78"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="43"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="89"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="43"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="89"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="43"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="89"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="43"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="89"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="43"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="89"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="78"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="1:9" ht="120" customHeight="1">
       <c r="A57" s="43">
         <v>1</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="73" t="s">
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="72">
+      <c r="A58" s="80">
         <v>2</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="72"/>
-      <c r="B59" s="74" t="s">
+      <c r="A59" s="80"/>
+      <c r="B59" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G59" s="79" t="s">
+      <c r="G59" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="80"/>
-      <c r="I59" s="81"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="87"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="72"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="43"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="70"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="76"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="72"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="43"/>
       <c r="F61" s="41"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="70"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="76"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="43"/>
       <c r="F62" s="41"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="70"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="76"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="87"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="43"/>
       <c r="F63" s="41"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="76"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="43" t="s">
         <v>0</v>
       </c>
       <c r="F64" s="43"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="70"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B31:D31"/>
@@ -6209,127 +6330,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6374,7 +6374,7 @@
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="108" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="59"/>
@@ -6391,7 +6391,7 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
-      <c r="J2" s="109"/>
+      <c r="J2" s="108"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
@@ -6406,7 +6406,7 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="J3" s="109"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="59"/>
@@ -6427,65 +6427,65 @@
       <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="103" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="60"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="61"/>
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
       <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="61"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
@@ -6495,21 +6495,21 @@
       <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="56" t="s">
+      <c r="F8" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="56" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="56" t="s">
-        <v>147</v>
       </c>
       <c r="J8" s="61"/>
       <c r="K8" s="59"/>
@@ -6520,19 +6520,19 @@
       <c r="A9" s="57">
         <v>1</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="57"/>
       <c r="J9" s="61"/>
       <c r="K9" s="59"/>
@@ -6541,47 +6541,47 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="28"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="90" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="102"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="22" t="s">
         <v>43</v>
       </c>
@@ -6591,10 +6591,10 @@
       <c r="A13" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="73"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="117"/>
       <c r="G13" s="118"/>
       <c r="H13" s="117"/>
@@ -6605,10 +6605,10 @@
       <c r="A14" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
-      <c r="E14" s="73"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="117"/>
       <c r="G14" s="118"/>
       <c r="H14" s="117"/>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="15" spans="1:13" s="25" customFormat="1">
       <c r="A15" s="43"/>
-      <c r="B15" s="73"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
-      <c r="E15" s="73"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="117"/>
       <c r="G15" s="118"/>
       <c r="H15" s="117"/>
@@ -6629,195 +6629,241 @@
     </row>
     <row r="16" spans="1:13" s="37" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="79" t="s">
+      <c r="E18" s="98"/>
+      <c r="F18" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="99"/>
+      <c r="H18" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="21"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:10" ht="124.5" customHeight="1">
       <c r="A22" s="21">
         <v>1</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="72">
+      <c r="A23" s="80">
         <v>2</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="72"/>
-      <c r="B24" s="74" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="72"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="21"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="72"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="21"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="21"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="21"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="A21:I21"/>
@@ -6834,52 +6880,6 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6966,78 +6966,78 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="107" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="107"/>
+      <c r="H5" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="109"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="107"/>
+      <c r="I6" s="109"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="29" t="s">
         <v>36</v>
       </c>
@@ -7047,19 +7047,19 @@
       <c r="A9" s="34">
         <v>1</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="33" t="s">
         <v>81</v>
       </c>
@@ -7067,59 +7067,59 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="34"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="33"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="34"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="33"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="90" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="90" t="s">
+      <c r="F13" s="110"/>
+      <c r="G13" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="29" t="s">
         <v>12</v>
       </c>
@@ -7129,17 +7129,17 @@
       <c r="A14" s="34">
         <v>1</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="73" t="s">
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="81" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="117"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="30"/>
       <c r="J14" s="3"/>
     </row>
@@ -7147,13 +7147,13 @@
       <c r="A15" s="34">
         <v>2</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="30"/>
       <c r="J15" s="3"/>
     </row>
@@ -7161,274 +7161,246 @@
       <c r="A16" s="34">
         <v>3</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="99"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="31"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="79" t="s">
+      <c r="E18" s="98"/>
+      <c r="F18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="99"/>
+      <c r="H18" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="34">
         <v>1</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="34"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="34"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="34"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="34"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:10" ht="177" customHeight="1">
       <c r="A25" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="72">
+      <c r="A26" s="80">
         <v>2</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="74" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="34"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="34"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="34"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="34"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="34" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="34"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="B21:C21"/>
@@ -7444,1761 +7416,11 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="45">
-        <v>1</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="45">
-        <v>2</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="45"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="45"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="45">
-        <v>1</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="45">
-        <v>2</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="45">
-        <v>3</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="95"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="45">
-        <v>1</v>
-      </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="45"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="45"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="45"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:10" ht="122.25" customHeight="1">
-      <c r="A26" s="45">
-        <v>1</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="72">
-        <v>2</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="72"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="52">
-        <v>1</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="52">
-        <v>2</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="52"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="52"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="52">
-        <v>1</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="52">
-        <v>2</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="52">
-        <v>3</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="95"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="52">
-        <v>1</v>
-      </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="52"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="52"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="52"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:10" ht="177" customHeight="1">
-      <c r="A26" s="52">
-        <v>1</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="72">
-        <v>2</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="72"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="125"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="52">
-        <v>1</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="52"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="52"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="52"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="95"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="127">
-        <v>1</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="128"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="129"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="99"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="52"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-    </row>
-    <row r="25" spans="1:10" ht="177" customHeight="1">
-      <c r="A25" s="52">
-        <v>1</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="72">
-        <v>2</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
@@ -9247,4 +7469,1782 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="45">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="45">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="45"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="45"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="110"/>
+      <c r="G14" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="110"/>
+      <c r="I14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A15" s="45">
+        <v>1</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="45">
+        <v>2</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A17" s="45">
+        <v>3</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="99"/>
+      <c r="H19" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="100"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="45">
+        <v>1</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="45"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="45"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="45"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="45"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:10" ht="122.25" customHeight="1">
+      <c r="A26" s="45">
+        <v>1</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="80">
+        <v>2</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="80"/>
+      <c r="B28" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="80"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="80"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="80"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="52">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="52">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="52"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="52"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="110"/>
+      <c r="G14" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="110"/>
+      <c r="I14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A15" s="52">
+        <v>1</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="52">
+        <v>2</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A17" s="52">
+        <v>3</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="99"/>
+      <c r="H19" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="100"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="52">
+        <v>1</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="52"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="52"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="52"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="52"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:10" ht="177" customHeight="1">
+      <c r="A26" s="52">
+        <v>1</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="80">
+        <v>2</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="80"/>
+      <c r="B28" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="80"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="80"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="80"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:I30"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="125"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="51.75" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="52">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="52"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="52"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="110"/>
+      <c r="G13" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="110"/>
+      <c r="I13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="42" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="52"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="99"/>
+      <c r="H18" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="100"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="129">
+        <v>1</v>
+      </c>
+      <c r="B19" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="138"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="130"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="138"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="131"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="138"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="52"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="52"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="1:10" ht="177" customHeight="1">
+      <c r="A25" s="52">
+        <v>1</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="80">
+        <v>2</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="80"/>
+      <c r="B27" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="80"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="80"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="80"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="80"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1">
+      <c r="A32" s="80"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:I29"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="J1:J3" location="Method_List!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>